--- a/ID_zespolu_ewidencja.xlsx
+++ b/ID_zespolu_ewidencja.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mskrzyp\Desktop\Github\e.leclerc\s5-Android-APP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2F6968-E2B4-4959-BCBD-0B085B184409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BC889B-B07B-4924-8F8B-F3A8695CA815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="345" windowWidth="21150" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1_Mateusz_Skrzypek" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
   <si>
     <t>Data</t>
   </si>
@@ -60,16 +60,19 @@
     <t>Narastająco</t>
   </si>
   <si>
-    <t>Research, talk with specialist</t>
-  </si>
-  <si>
     <t>Initial research</t>
   </si>
   <si>
-    <t xml:space="preserve">11-18, 19-21:11, api sketch, </t>
+    <t>Api sketch</t>
   </si>
   <si>
-    <t>12-17 api, usecases, 17-20</t>
+    <t>Talk with backend specialist</t>
+  </si>
+  <si>
+    <t>Usecase diagram - functionality call</t>
+  </si>
+  <si>
+    <t>Backend alternatives</t>
   </si>
 </sst>
 </file>
@@ -509,7 +512,7 @@
   <dimension ref="A1:D132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B8" sqref="B5:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1">
         <f>SUM(B2)</f>
@@ -575,7 +578,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
@@ -590,7 +593,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
@@ -602,23 +605,29 @@
         <v>45571</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45572</v>
       </c>
+      <c r="B8">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -627,7 +636,7 @@
       </c>
       <c r="D9" s="1">
         <f>B9+D8</f>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -636,7 +645,7 @@
       </c>
       <c r="D10" s="1">
         <f>B10+D9</f>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -645,7 +654,7 @@
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -654,7 +663,7 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -663,7 +672,7 @@
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -672,7 +681,7 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -681,7 +690,7 @@
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -690,7 +699,7 @@
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -699,7 +708,7 @@
       </c>
       <c r="D17" s="1">
         <f>B17+D16</f>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -708,7 +717,7 @@
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -717,7 +726,7 @@
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -726,7 +735,7 @@
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -735,7 +744,7 @@
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -744,7 +753,7 @@
       </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -753,7 +762,7 @@
       </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -762,7 +771,7 @@
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -771,7 +780,7 @@
       </c>
       <c r="D25" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -780,7 +789,7 @@
       </c>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -789,7 +798,7 @@
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -798,7 +807,7 @@
       </c>
       <c r="D28" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -807,7 +816,7 @@
       </c>
       <c r="D29" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -816,7 +825,7 @@
       </c>
       <c r="D30" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -825,7 +834,7 @@
       </c>
       <c r="D31" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -834,7 +843,7 @@
       </c>
       <c r="D32" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -843,7 +852,7 @@
       </c>
       <c r="D33" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -852,7 +861,7 @@
       </c>
       <c r="D34" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -861,7 +870,7 @@
       </c>
       <c r="D35" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -870,7 +879,7 @@
       </c>
       <c r="D36" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -879,7 +888,7 @@
       </c>
       <c r="D37" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -888,7 +897,7 @@
       </c>
       <c r="D38" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -897,7 +906,7 @@
       </c>
       <c r="D39" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -906,7 +915,7 @@
       </c>
       <c r="D40" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -915,7 +924,7 @@
       </c>
       <c r="D41" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -924,7 +933,7 @@
       </c>
       <c r="D42" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -933,7 +942,7 @@
       </c>
       <c r="D43" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -942,7 +951,7 @@
       </c>
       <c r="D44" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -951,7 +960,7 @@
       </c>
       <c r="D45" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -960,7 +969,7 @@
       </c>
       <c r="D46" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -969,7 +978,7 @@
       </c>
       <c r="D47" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -978,7 +987,7 @@
       </c>
       <c r="D48" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -987,7 +996,7 @@
       </c>
       <c r="D49" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -996,7 +1005,7 @@
       </c>
       <c r="D50" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1005,7 +1014,7 @@
       </c>
       <c r="D51" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1014,7 +1023,7 @@
       </c>
       <c r="D52" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1023,7 +1032,7 @@
       </c>
       <c r="D53" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1032,7 +1041,7 @@
       </c>
       <c r="D54" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1041,7 +1050,7 @@
       </c>
       <c r="D55" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1050,7 +1059,7 @@
       </c>
       <c r="D56" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1059,7 +1068,7 @@
       </c>
       <c r="D57" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1068,7 +1077,7 @@
       </c>
       <c r="D58" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1077,7 +1086,7 @@
       </c>
       <c r="D59" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1086,7 +1095,7 @@
       </c>
       <c r="D60" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1095,7 +1104,7 @@
       </c>
       <c r="D61" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1104,7 +1113,7 @@
       </c>
       <c r="D62" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1113,7 +1122,7 @@
       </c>
       <c r="D63" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1122,7 +1131,7 @@
       </c>
       <c r="D64" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1131,7 +1140,7 @@
       </c>
       <c r="D65" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1140,7 +1149,7 @@
       </c>
       <c r="D66" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1149,7 +1158,7 @@
       </c>
       <c r="D67" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1158,7 +1167,7 @@
       </c>
       <c r="D68" s="1">
         <f t="shared" ref="D68:D127" si="1">B68+D67</f>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1167,7 +1176,7 @@
       </c>
       <c r="D69" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1176,7 +1185,7 @@
       </c>
       <c r="D70" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1185,7 +1194,7 @@
       </c>
       <c r="D71" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1194,7 +1203,7 @@
       </c>
       <c r="D72" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1203,7 +1212,7 @@
       </c>
       <c r="D73" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1212,7 +1221,7 @@
       </c>
       <c r="D74" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1221,7 +1230,7 @@
       </c>
       <c r="D75" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1230,7 +1239,7 @@
       </c>
       <c r="D76" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1239,7 +1248,7 @@
       </c>
       <c r="D77" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -1248,7 +1257,7 @@
       </c>
       <c r="D78" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1257,7 +1266,7 @@
       </c>
       <c r="D79" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1266,7 +1275,7 @@
       </c>
       <c r="D80" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -1275,7 +1284,7 @@
       </c>
       <c r="D81" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -1284,7 +1293,7 @@
       </c>
       <c r="D82" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -1293,7 +1302,7 @@
       </c>
       <c r="D83" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -1302,7 +1311,7 @@
       </c>
       <c r="D84" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -1311,7 +1320,7 @@
       </c>
       <c r="D85" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -1320,7 +1329,7 @@
       </c>
       <c r="D86" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -1329,7 +1338,7 @@
       </c>
       <c r="D87" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -1338,7 +1347,7 @@
       </c>
       <c r="D88" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -1347,7 +1356,7 @@
       </c>
       <c r="D89" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -1356,7 +1365,7 @@
       </c>
       <c r="D90" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -1365,7 +1374,7 @@
       </c>
       <c r="D91" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -1374,7 +1383,7 @@
       </c>
       <c r="D92" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -1383,7 +1392,7 @@
       </c>
       <c r="D93" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -1392,7 +1401,7 @@
       </c>
       <c r="D94" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -1401,7 +1410,7 @@
       </c>
       <c r="D95" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -1410,7 +1419,7 @@
       </c>
       <c r="D96" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -1419,7 +1428,7 @@
       </c>
       <c r="D97" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -1428,7 +1437,7 @@
       </c>
       <c r="D98" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -1437,7 +1446,7 @@
       </c>
       <c r="D99" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -1446,7 +1455,7 @@
       </c>
       <c r="D100" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -1455,7 +1464,7 @@
       </c>
       <c r="D101" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -1464,7 +1473,7 @@
       </c>
       <c r="D102" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -1473,7 +1482,7 @@
       </c>
       <c r="D103" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -1482,7 +1491,7 @@
       </c>
       <c r="D104" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -1491,7 +1500,7 @@
       </c>
       <c r="D105" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -1500,7 +1509,7 @@
       </c>
       <c r="D106" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -1509,7 +1518,7 @@
       </c>
       <c r="D107" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -1518,7 +1527,7 @@
       </c>
       <c r="D108" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -1527,7 +1536,7 @@
       </c>
       <c r="D109" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -1536,7 +1545,7 @@
       </c>
       <c r="D110" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -1545,7 +1554,7 @@
       </c>
       <c r="D111" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -1554,7 +1563,7 @@
       </c>
       <c r="D112" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -1563,7 +1572,7 @@
       </c>
       <c r="D113" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -1572,7 +1581,7 @@
       </c>
       <c r="D114" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -1581,7 +1590,7 @@
       </c>
       <c r="D115" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -1590,7 +1599,7 @@
       </c>
       <c r="D116" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -1599,7 +1608,7 @@
       </c>
       <c r="D117" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -1608,7 +1617,7 @@
       </c>
       <c r="D118" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -1617,7 +1626,7 @@
       </c>
       <c r="D119" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -1626,7 +1635,7 @@
       </c>
       <c r="D120" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -1635,7 +1644,7 @@
       </c>
       <c r="D121" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -1644,7 +1653,7 @@
       </c>
       <c r="D122" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -1653,7 +1662,7 @@
       </c>
       <c r="D123" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -1662,7 +1671,7 @@
       </c>
       <c r="D124" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -1671,7 +1680,7 @@
       </c>
       <c r="D125" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -1680,7 +1689,7 @@
       </c>
       <c r="D126" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -1689,7 +1698,7 @@
       </c>
       <c r="D127" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -5359,11 +5368,11 @@
       </c>
       <c r="B7" s="1">
         <f>SUM('1_Mateusz_Skrzypek'!B7,'2_Imię_Nazwisko'!B7,'4_Imię_Nazwisko'!B7)</f>
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5372,11 +5381,11 @@
       </c>
       <c r="B8" s="1">
         <f>SUM('1_Mateusz_Skrzypek'!B8,'2_Imię_Nazwisko'!B8,'4_Imię_Nazwisko'!B8)</f>
-        <v>0</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5389,7 +5398,7 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -5402,7 +5411,7 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -5415,7 +5424,7 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -5428,7 +5437,7 @@
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -5441,7 +5450,7 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5454,7 +5463,7 @@
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -5467,7 +5476,7 @@
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -5480,7 +5489,7 @@
       </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5493,7 +5502,7 @@
       </c>
       <c r="C17" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -5506,7 +5515,7 @@
       </c>
       <c r="C18" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -5519,7 +5528,7 @@
       </c>
       <c r="C19" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -5532,7 +5541,7 @@
       </c>
       <c r="C20" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -5545,7 +5554,7 @@
       </c>
       <c r="C21" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -5558,7 +5567,7 @@
       </c>
       <c r="C22" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -5571,7 +5580,7 @@
       </c>
       <c r="C23" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -5584,7 +5593,7 @@
       </c>
       <c r="C24" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -5597,7 +5606,7 @@
       </c>
       <c r="C25" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -5610,7 +5619,7 @@
       </c>
       <c r="C26" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -5623,7 +5632,7 @@
       </c>
       <c r="C27" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -5636,7 +5645,7 @@
       </c>
       <c r="C28" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -5649,7 +5658,7 @@
       </c>
       <c r="C29" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -5662,7 +5671,7 @@
       </c>
       <c r="C30" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -5675,7 +5684,7 @@
       </c>
       <c r="C31" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -5688,7 +5697,7 @@
       </c>
       <c r="C32" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -5701,7 +5710,7 @@
       </c>
       <c r="C33" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -5714,7 +5723,7 @@
       </c>
       <c r="C34" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -5727,7 +5736,7 @@
       </c>
       <c r="C35" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -5740,7 +5749,7 @@
       </c>
       <c r="C36" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -5753,7 +5762,7 @@
       </c>
       <c r="C37" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -5766,7 +5775,7 @@
       </c>
       <c r="C38" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -5779,7 +5788,7 @@
       </c>
       <c r="C39" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -5792,7 +5801,7 @@
       </c>
       <c r="C40" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -5805,7 +5814,7 @@
       </c>
       <c r="C41" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -5818,7 +5827,7 @@
       </c>
       <c r="C42" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -5831,7 +5840,7 @@
       </c>
       <c r="C43" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -5844,7 +5853,7 @@
       </c>
       <c r="C44" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -5857,7 +5866,7 @@
       </c>
       <c r="C45" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -5870,7 +5879,7 @@
       </c>
       <c r="C46" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -5883,7 +5892,7 @@
       </c>
       <c r="C47" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -5896,7 +5905,7 @@
       </c>
       <c r="C48" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -5909,7 +5918,7 @@
       </c>
       <c r="C49" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -5922,7 +5931,7 @@
       </c>
       <c r="C50" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -5935,7 +5944,7 @@
       </c>
       <c r="C51" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -5948,7 +5957,7 @@
       </c>
       <c r="C52" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -5961,7 +5970,7 @@
       </c>
       <c r="C53" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -5974,7 +5983,7 @@
       </c>
       <c r="C54" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -5987,7 +5996,7 @@
       </c>
       <c r="C55" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -6000,7 +6009,7 @@
       </c>
       <c r="C56" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -6013,7 +6022,7 @@
       </c>
       <c r="C57" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -6026,7 +6035,7 @@
       </c>
       <c r="C58" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -6039,7 +6048,7 @@
       </c>
       <c r="C59" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -6052,7 +6061,7 @@
       </c>
       <c r="C60" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -6065,7 +6074,7 @@
       </c>
       <c r="C61" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -6078,7 +6087,7 @@
       </c>
       <c r="C62" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -6091,7 +6100,7 @@
       </c>
       <c r="C63" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -6104,7 +6113,7 @@
       </c>
       <c r="C64" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -6117,7 +6126,7 @@
       </c>
       <c r="C65" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -6130,7 +6139,7 @@
       </c>
       <c r="C66" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -6143,7 +6152,7 @@
       </c>
       <c r="C67" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -6156,7 +6165,7 @@
       </c>
       <c r="C68" s="1">
         <f t="shared" ref="C68:C127" si="1">C67+B68</f>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -6169,7 +6178,7 @@
       </c>
       <c r="C69" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -6182,7 +6191,7 @@
       </c>
       <c r="C70" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -6195,7 +6204,7 @@
       </c>
       <c r="C71" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -6208,7 +6217,7 @@
       </c>
       <c r="C72" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -6221,7 +6230,7 @@
       </c>
       <c r="C73" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -6234,7 +6243,7 @@
       </c>
       <c r="C74" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -6247,7 +6256,7 @@
       </c>
       <c r="C75" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -6260,7 +6269,7 @@
       </c>
       <c r="C76" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -6273,7 +6282,7 @@
       </c>
       <c r="C77" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -6286,7 +6295,7 @@
       </c>
       <c r="C78" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -6299,7 +6308,7 @@
       </c>
       <c r="C79" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -6312,7 +6321,7 @@
       </c>
       <c r="C80" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -6325,7 +6334,7 @@
       </c>
       <c r="C81" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -6338,7 +6347,7 @@
       </c>
       <c r="C82" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -6351,7 +6360,7 @@
       </c>
       <c r="C83" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -6364,7 +6373,7 @@
       </c>
       <c r="C84" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -6377,7 +6386,7 @@
       </c>
       <c r="C85" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -6390,7 +6399,7 @@
       </c>
       <c r="C86" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -6403,7 +6412,7 @@
       </c>
       <c r="C87" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -6416,7 +6425,7 @@
       </c>
       <c r="C88" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -6429,7 +6438,7 @@
       </c>
       <c r="C89" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -6442,7 +6451,7 @@
       </c>
       <c r="C90" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -6455,7 +6464,7 @@
       </c>
       <c r="C91" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -6468,7 +6477,7 @@
       </c>
       <c r="C92" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -6481,7 +6490,7 @@
       </c>
       <c r="C93" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -6494,7 +6503,7 @@
       </c>
       <c r="C94" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -6507,7 +6516,7 @@
       </c>
       <c r="C95" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -6520,7 +6529,7 @@
       </c>
       <c r="C96" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -6533,7 +6542,7 @@
       </c>
       <c r="C97" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -6546,7 +6555,7 @@
       </c>
       <c r="C98" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -6559,7 +6568,7 @@
       </c>
       <c r="C99" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -6572,7 +6581,7 @@
       </c>
       <c r="C100" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -6585,7 +6594,7 @@
       </c>
       <c r="C101" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -6598,7 +6607,7 @@
       </c>
       <c r="C102" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -6611,7 +6620,7 @@
       </c>
       <c r="C103" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -6624,7 +6633,7 @@
       </c>
       <c r="C104" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -6637,7 +6646,7 @@
       </c>
       <c r="C105" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -6650,7 +6659,7 @@
       </c>
       <c r="C106" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -6663,7 +6672,7 @@
       </c>
       <c r="C107" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -6676,7 +6685,7 @@
       </c>
       <c r="C108" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -6689,7 +6698,7 @@
       </c>
       <c r="C109" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -6702,7 +6711,7 @@
       </c>
       <c r="C110" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -6715,7 +6724,7 @@
       </c>
       <c r="C111" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -6728,7 +6737,7 @@
       </c>
       <c r="C112" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -6741,7 +6750,7 @@
       </c>
       <c r="C113" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -6754,7 +6763,7 @@
       </c>
       <c r="C114" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -6767,7 +6776,7 @@
       </c>
       <c r="C115" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -6780,7 +6789,7 @@
       </c>
       <c r="C116" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -6793,7 +6802,7 @@
       </c>
       <c r="C117" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -6806,7 +6815,7 @@
       </c>
       <c r="C118" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -6819,7 +6828,7 @@
       </c>
       <c r="C119" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -6832,7 +6841,7 @@
       </c>
       <c r="C120" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -6845,7 +6854,7 @@
       </c>
       <c r="C121" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -6858,7 +6867,7 @@
       </c>
       <c r="C122" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -6871,7 +6880,7 @@
       </c>
       <c r="C123" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -6884,7 +6893,7 @@
       </c>
       <c r="C124" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -6897,7 +6906,7 @@
       </c>
       <c r="C125" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -6910,7 +6919,7 @@
       </c>
       <c r="C126" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -6923,7 +6932,7 @@
       </c>
       <c r="C127" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -6947,6 +6956,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100BF63F47345AA104BAD8025403A332EC4" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="2b9be556d413d7c3e99fff097a4a98c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="880b73d8-af7f-42e3-972b-e46fe4ffca1b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="643da98f93f748be063e7f29d6c7d305" ns2:_="">
     <xsd:import namespace="880b73d8-af7f-42e3-972b-e46fe4ffca1b"/>
@@ -7090,22 +7114,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6570E11-21DF-40C1-8E5B-FD3CDF32C4F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21938D86-7413-468E-85B7-E79A45C27865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57B575B8-240F-4CC3-A552-189C22DB0968}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7121,21 +7147,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21938D86-7413-468E-85B7-E79A45C27865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6570E11-21DF-40C1-8E5B-FD3CDF32C4F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ID_zespolu_ewidencja.xlsx
+++ b/ID_zespolu_ewidencja.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mskrzyp\Desktop\Github\e.leclerc\s5-Android-APP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BC889B-B07B-4924-8F8B-F3A8695CA815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6CC6F7-3AD6-4781-B058-7904D1E91249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
     <t>Data</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Backend alternatives</t>
+  </si>
+  <si>
+    <t>9:30 -&gt; 15:30 , do 18:00?</t>
   </si>
 </sst>
 </file>
@@ -512,7 +515,7 @@
   <dimension ref="A1:D132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="B8" sqref="B5:D8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,6 +636,9 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45573</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
       </c>
       <c r="D9" s="1">
         <f>B9+D8</f>
@@ -6956,21 +6962,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100BF63F47345AA104BAD8025403A332EC4" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="2b9be556d413d7c3e99fff097a4a98c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="880b73d8-af7f-42e3-972b-e46fe4ffca1b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="643da98f93f748be063e7f29d6c7d305" ns2:_="">
     <xsd:import namespace="880b73d8-af7f-42e3-972b-e46fe4ffca1b"/>
@@ -7114,24 +7105,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6570E11-21DF-40C1-8E5B-FD3CDF32C4F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21938D86-7413-468E-85B7-E79A45C27865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57B575B8-240F-4CC3-A552-189C22DB0968}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7147,4 +7136,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21938D86-7413-468E-85B7-E79A45C27865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6570E11-21DF-40C1-8E5B-FD3CDF32C4F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ID_zespolu_ewidencja.xlsx
+++ b/ID_zespolu_ewidencja.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mskrzyp\Desktop\Github\e.leclerc\s5-Android-APP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mskrz\Desktop\Github\s5\s5-Android-APP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6CC6F7-3AD6-4781-B058-7904D1E91249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0D22C1-1176-40D2-B720-849070AD425F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1_Mateusz_Skrzypek" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>Data</t>
   </si>
@@ -75,7 +75,10 @@
     <t>Backend alternatives</t>
   </si>
   <si>
-    <t>9:30 -&gt; 15:30 , do 18:00?</t>
+    <t>11:30-&gt; 11:50 14:00-14:30</t>
+  </si>
+  <si>
+    <t>9:30 -&gt; 15:30 , do 18:00? + cos</t>
   </si>
 </sst>
 </file>
@@ -514,19 +517,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="280" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -540,7 +543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45566</v>
       </c>
@@ -555,7 +558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45567</v>
       </c>
@@ -564,7 +567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45568</v>
       </c>
@@ -573,7 +576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45569</v>
       </c>
@@ -588,7 +591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>45570</v>
       </c>
@@ -603,7 +606,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>45571</v>
       </c>
@@ -618,7 +621,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>45572</v>
       </c>
@@ -633,28 +636,31 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>45573</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1">
         <f>B9+D8</f>
         <v>31.8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>45574</v>
       </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
       <c r="D10" s="1">
         <f>B10+D9</f>
         <v>31.8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>45575</v>
       </c>
@@ -663,7 +669,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>45576</v>
       </c>
@@ -672,7 +678,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>45577</v>
       </c>
@@ -681,7 +687,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>45578</v>
       </c>
@@ -690,7 +696,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>45579</v>
       </c>
@@ -699,7 +705,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>45580</v>
       </c>
@@ -708,7 +714,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>45581</v>
       </c>
@@ -717,7 +723,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>45582</v>
       </c>
@@ -726,7 +732,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>45583</v>
       </c>
@@ -735,7 +741,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>45584</v>
       </c>
@@ -744,7 +750,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>45585</v>
       </c>
@@ -753,7 +759,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>45586</v>
       </c>
@@ -762,7 +768,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>45587</v>
       </c>
@@ -771,7 +777,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>45588</v>
       </c>
@@ -780,7 +786,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>45589</v>
       </c>
@@ -789,7 +795,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>45590</v>
       </c>
@@ -798,7 +804,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>45591</v>
       </c>
@@ -807,7 +813,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>45592</v>
       </c>
@@ -816,7 +822,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>45593</v>
       </c>
@@ -825,7 +831,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>45594</v>
       </c>
@@ -834,7 +840,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>45595</v>
       </c>
@@ -843,7 +849,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>45596</v>
       </c>
@@ -852,7 +858,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>45597</v>
       </c>
@@ -861,7 +867,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>45598</v>
       </c>
@@ -870,7 +876,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>45599</v>
       </c>
@@ -879,7 +885,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>45600</v>
       </c>
@@ -888,7 +894,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>45601</v>
       </c>
@@ -897,7 +903,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>45602</v>
       </c>
@@ -906,7 +912,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>45603</v>
       </c>
@@ -915,7 +921,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>45604</v>
       </c>
@@ -924,7 +930,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>45605</v>
       </c>
@@ -933,7 +939,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>45606</v>
       </c>
@@ -942,7 +948,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>45607</v>
       </c>
@@ -951,7 +957,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>45608</v>
       </c>
@@ -960,7 +966,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>45609</v>
       </c>
@@ -969,7 +975,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45610</v>
       </c>
@@ -978,7 +984,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>45611</v>
       </c>
@@ -987,7 +993,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>45612</v>
       </c>
@@ -996,7 +1002,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>45613</v>
       </c>
@@ -1005,7 +1011,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>45614</v>
       </c>
@@ -1014,7 +1020,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>45615</v>
       </c>
@@ -1023,7 +1029,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>45616</v>
       </c>
@@ -1032,7 +1038,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>45617</v>
       </c>
@@ -1041,7 +1047,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>45618</v>
       </c>
@@ -1050,7 +1056,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>45619</v>
       </c>
@@ -1059,7 +1065,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>45620</v>
       </c>
@@ -1068,7 +1074,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>45621</v>
       </c>
@@ -1077,7 +1083,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>45622</v>
       </c>
@@ -1086,7 +1092,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>45623</v>
       </c>
@@ -1095,7 +1101,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>45624</v>
       </c>
@@ -1104,7 +1110,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>45625</v>
       </c>
@@ -1113,7 +1119,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>45626</v>
       </c>
@@ -1122,7 +1128,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>45627</v>
       </c>
@@ -1131,7 +1137,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>45628</v>
       </c>
@@ -1140,7 +1146,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>45629</v>
       </c>
@@ -1149,7 +1155,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>45630</v>
       </c>
@@ -1158,7 +1164,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>45631</v>
       </c>
@@ -1167,7 +1173,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>45632</v>
       </c>
@@ -1176,7 +1182,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>45633</v>
       </c>
@@ -1185,7 +1191,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>45634</v>
       </c>
@@ -1194,7 +1200,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>45635</v>
       </c>
@@ -1203,7 +1209,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>45636</v>
       </c>
@@ -1212,7 +1218,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>45637</v>
       </c>
@@ -1221,7 +1227,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>45638</v>
       </c>
@@ -1230,7 +1236,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>45639</v>
       </c>
@@ -1239,7 +1245,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>45640</v>
       </c>
@@ -1248,7 +1254,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>45641</v>
       </c>
@@ -1257,7 +1263,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>45642</v>
       </c>
@@ -1266,7 +1272,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>45643</v>
       </c>
@@ -1275,7 +1281,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>45644</v>
       </c>
@@ -1284,7 +1290,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>45645</v>
       </c>
@@ -1293,7 +1299,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>45646</v>
       </c>
@@ -1302,7 +1308,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>45647</v>
       </c>
@@ -1311,7 +1317,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>45648</v>
       </c>
@@ -1320,7 +1326,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>45649</v>
       </c>
@@ -1329,7 +1335,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>45650</v>
       </c>
@@ -1338,7 +1344,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>45651</v>
       </c>
@@ -1347,7 +1353,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>45652</v>
       </c>
@@ -1356,7 +1362,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>45653</v>
       </c>
@@ -1365,7 +1371,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>45654</v>
       </c>
@@ -1374,7 +1380,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>45655</v>
       </c>
@@ -1383,7 +1389,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>45656</v>
       </c>
@@ -1392,7 +1398,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>45657</v>
       </c>
@@ -1401,7 +1407,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>45658</v>
       </c>
@@ -1410,7 +1416,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>45659</v>
       </c>
@@ -1419,7 +1425,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>45660</v>
       </c>
@@ -1428,7 +1434,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>45661</v>
       </c>
@@ -1437,7 +1443,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>45662</v>
       </c>
@@ -1446,7 +1452,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>45663</v>
       </c>
@@ -1455,7 +1461,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>45664</v>
       </c>
@@ -1464,7 +1470,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>45665</v>
       </c>
@@ -1473,7 +1479,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>45666</v>
       </c>
@@ -1482,7 +1488,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>45667</v>
       </c>
@@ -1491,7 +1497,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>45668</v>
       </c>
@@ -1500,7 +1506,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>45669</v>
       </c>
@@ -1509,7 +1515,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>45670</v>
       </c>
@@ -1518,7 +1524,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>45671</v>
       </c>
@@ -1527,7 +1533,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>45672</v>
       </c>
@@ -1536,7 +1542,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>45673</v>
       </c>
@@ -1545,7 +1551,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>45674</v>
       </c>
@@ -1554,7 +1560,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>45675</v>
       </c>
@@ -1563,7 +1569,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>45676</v>
       </c>
@@ -1572,7 +1578,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>45677</v>
       </c>
@@ -1581,7 +1587,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>45678</v>
       </c>
@@ -1590,7 +1596,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>45679</v>
       </c>
@@ -1599,7 +1605,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>45680</v>
       </c>
@@ -1608,7 +1614,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>45681</v>
       </c>
@@ -1617,7 +1623,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>45682</v>
       </c>
@@ -1626,7 +1632,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>45683</v>
       </c>
@@ -1635,7 +1641,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>45684</v>
       </c>
@@ -1644,7 +1650,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>45685</v>
       </c>
@@ -1653,7 +1659,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>45686</v>
       </c>
@@ -1662,7 +1668,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>45687</v>
       </c>
@@ -1671,7 +1677,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>45688</v>
       </c>
@@ -1680,7 +1686,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>45689</v>
       </c>
@@ -1689,7 +1695,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>45690</v>
       </c>
@@ -1698,7 +1704,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>45691</v>
       </c>
@@ -1707,19 +1713,19 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
     </row>
   </sheetData>
@@ -1735,15 +1741,15 @@
       <selection activeCell="C3" sqref="B2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1757,7 +1763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45566</v>
       </c>
@@ -1766,7 +1772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45567</v>
       </c>
@@ -1775,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45568</v>
       </c>
@@ -1784,7 +1790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45569</v>
       </c>
@@ -1793,7 +1799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>45570</v>
       </c>
@@ -1802,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>45571</v>
       </c>
@@ -1811,7 +1817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>45572</v>
       </c>
@@ -1820,7 +1826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>45573</v>
       </c>
@@ -1829,7 +1835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>45574</v>
       </c>
@@ -1838,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>45575</v>
       </c>
@@ -1847,7 +1853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>45576</v>
       </c>
@@ -1856,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>45577</v>
       </c>
@@ -1865,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>45578</v>
       </c>
@@ -1874,7 +1880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>45579</v>
       </c>
@@ -1883,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>45580</v>
       </c>
@@ -1892,7 +1898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>45581</v>
       </c>
@@ -1901,7 +1907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>45582</v>
       </c>
@@ -1910,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>45583</v>
       </c>
@@ -1919,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>45584</v>
       </c>
@@ -1928,7 +1934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>45585</v>
       </c>
@@ -1937,7 +1943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>45586</v>
       </c>
@@ -1946,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>45587</v>
       </c>
@@ -1955,7 +1961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>45588</v>
       </c>
@@ -1964,7 +1970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>45589</v>
       </c>
@@ -1973,7 +1979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>45590</v>
       </c>
@@ -1982,7 +1988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>45591</v>
       </c>
@@ -1991,7 +1997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>45592</v>
       </c>
@@ -2000,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>45593</v>
       </c>
@@ -2009,7 +2015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>45594</v>
       </c>
@@ -2018,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>45595</v>
       </c>
@@ -2027,7 +2033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>45596</v>
       </c>
@@ -2036,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>45597</v>
       </c>
@@ -2045,7 +2051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>45598</v>
       </c>
@@ -2054,7 +2060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>45599</v>
       </c>
@@ -2063,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>45600</v>
       </c>
@@ -2072,7 +2078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>45601</v>
       </c>
@@ -2081,7 +2087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>45602</v>
       </c>
@@ -2090,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>45603</v>
       </c>
@@ -2099,7 +2105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>45604</v>
       </c>
@@ -2108,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>45605</v>
       </c>
@@ -2117,7 +2123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>45606</v>
       </c>
@@ -2126,7 +2132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>45607</v>
       </c>
@@ -2135,7 +2141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>45608</v>
       </c>
@@ -2144,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>45609</v>
       </c>
@@ -2153,7 +2159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45610</v>
       </c>
@@ -2162,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>45611</v>
       </c>
@@ -2171,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>45612</v>
       </c>
@@ -2180,7 +2186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>45613</v>
       </c>
@@ -2189,7 +2195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>45614</v>
       </c>
@@ -2198,7 +2204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>45615</v>
       </c>
@@ -2207,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>45616</v>
       </c>
@@ -2216,7 +2222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>45617</v>
       </c>
@@ -2225,7 +2231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>45618</v>
       </c>
@@ -2234,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>45619</v>
       </c>
@@ -2243,7 +2249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>45620</v>
       </c>
@@ -2252,7 +2258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>45621</v>
       </c>
@@ -2261,7 +2267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>45622</v>
       </c>
@@ -2270,7 +2276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>45623</v>
       </c>
@@ -2279,7 +2285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>45624</v>
       </c>
@@ -2288,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>45625</v>
       </c>
@@ -2297,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>45626</v>
       </c>
@@ -2306,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>45627</v>
       </c>
@@ -2315,7 +2321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>45628</v>
       </c>
@@ -2324,7 +2330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>45629</v>
       </c>
@@ -2333,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>45630</v>
       </c>
@@ -2342,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>45631</v>
       </c>
@@ -2351,7 +2357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>45632</v>
       </c>
@@ -2360,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>45633</v>
       </c>
@@ -2369,7 +2375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>45634</v>
       </c>
@@ -2378,7 +2384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>45635</v>
       </c>
@@ -2387,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>45636</v>
       </c>
@@ -2396,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>45637</v>
       </c>
@@ -2405,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>45638</v>
       </c>
@@ -2414,7 +2420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>45639</v>
       </c>
@@ -2423,7 +2429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>45640</v>
       </c>
@@ -2432,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>45641</v>
       </c>
@@ -2441,7 +2447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>45642</v>
       </c>
@@ -2450,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>45643</v>
       </c>
@@ -2459,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>45644</v>
       </c>
@@ -2468,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>45645</v>
       </c>
@@ -2477,7 +2483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>45646</v>
       </c>
@@ -2486,7 +2492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>45647</v>
       </c>
@@ -2495,7 +2501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>45648</v>
       </c>
@@ -2504,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>45649</v>
       </c>
@@ -2513,7 +2519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>45650</v>
       </c>
@@ -2522,7 +2528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>45651</v>
       </c>
@@ -2531,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>45652</v>
       </c>
@@ -2540,7 +2546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>45653</v>
       </c>
@@ -2549,7 +2555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>45654</v>
       </c>
@@ -2558,7 +2564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>45655</v>
       </c>
@@ -2567,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>45656</v>
       </c>
@@ -2576,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>45657</v>
       </c>
@@ -2585,7 +2591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>45658</v>
       </c>
@@ -2594,7 +2600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>45659</v>
       </c>
@@ -2603,7 +2609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>45660</v>
       </c>
@@ -2612,7 +2618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>45661</v>
       </c>
@@ -2621,7 +2627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>45662</v>
       </c>
@@ -2630,7 +2636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>45663</v>
       </c>
@@ -2639,7 +2645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>45664</v>
       </c>
@@ -2648,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>45665</v>
       </c>
@@ -2657,7 +2663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>45666</v>
       </c>
@@ -2666,7 +2672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>45667</v>
       </c>
@@ -2675,7 +2681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>45668</v>
       </c>
@@ -2684,7 +2690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>45669</v>
       </c>
@@ -2693,7 +2699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>45670</v>
       </c>
@@ -2702,7 +2708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>45671</v>
       </c>
@@ -2711,7 +2717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>45672</v>
       </c>
@@ -2720,7 +2726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>45673</v>
       </c>
@@ -2729,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>45674</v>
       </c>
@@ -2738,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>45675</v>
       </c>
@@ -2747,7 +2753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>45676</v>
       </c>
@@ -2756,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>45677</v>
       </c>
@@ -2765,7 +2771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>45678</v>
       </c>
@@ -2774,7 +2780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>45679</v>
       </c>
@@ -2783,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>45680</v>
       </c>
@@ -2792,7 +2798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>45681</v>
       </c>
@@ -2801,7 +2807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>45682</v>
       </c>
@@ -2810,7 +2816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>45683</v>
       </c>
@@ -2819,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>45684</v>
       </c>
@@ -2828,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>45685</v>
       </c>
@@ -2837,7 +2843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>45686</v>
       </c>
@@ -2846,7 +2852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>45687</v>
       </c>
@@ -2855,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>45688</v>
       </c>
@@ -2864,7 +2870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>45689</v>
       </c>
@@ -2873,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>45690</v>
       </c>
@@ -2882,7 +2888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>45691</v>
       </c>
@@ -2891,19 +2897,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
     </row>
   </sheetData>
@@ -2917,15 +2923,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2939,7 +2945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45566</v>
       </c>
@@ -2948,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45567</v>
       </c>
@@ -2957,7 +2963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45568</v>
       </c>
@@ -2966,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45569</v>
       </c>
@@ -2975,7 +2981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>45570</v>
       </c>
@@ -2984,7 +2990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>45571</v>
       </c>
@@ -2993,7 +2999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>45572</v>
       </c>
@@ -3002,7 +3008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>45573</v>
       </c>
@@ -3011,7 +3017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>45574</v>
       </c>
@@ -3020,7 +3026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>45575</v>
       </c>
@@ -3029,7 +3035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>45576</v>
       </c>
@@ -3038,7 +3044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>45577</v>
       </c>
@@ -3047,7 +3053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>45578</v>
       </c>
@@ -3056,7 +3062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>45579</v>
       </c>
@@ -3065,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>45580</v>
       </c>
@@ -3074,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>45581</v>
       </c>
@@ -3083,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>45582</v>
       </c>
@@ -3092,7 +3098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>45583</v>
       </c>
@@ -3101,7 +3107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>45584</v>
       </c>
@@ -3110,7 +3116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>45585</v>
       </c>
@@ -3119,7 +3125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>45586</v>
       </c>
@@ -3128,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>45587</v>
       </c>
@@ -3137,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>45588</v>
       </c>
@@ -3146,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>45589</v>
       </c>
@@ -3155,7 +3161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>45590</v>
       </c>
@@ -3164,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>45591</v>
       </c>
@@ -3173,7 +3179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>45592</v>
       </c>
@@ -3182,7 +3188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>45593</v>
       </c>
@@ -3191,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>45594</v>
       </c>
@@ -3200,7 +3206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>45595</v>
       </c>
@@ -3209,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>45596</v>
       </c>
@@ -3218,7 +3224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>45597</v>
       </c>
@@ -3227,7 +3233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>45598</v>
       </c>
@@ -3236,7 +3242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>45599</v>
       </c>
@@ -3245,7 +3251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>45600</v>
       </c>
@@ -3254,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>45601</v>
       </c>
@@ -3263,7 +3269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>45602</v>
       </c>
@@ -3272,7 +3278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>45603</v>
       </c>
@@ -3281,7 +3287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>45604</v>
       </c>
@@ -3290,7 +3296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>45605</v>
       </c>
@@ -3299,7 +3305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>45606</v>
       </c>
@@ -3308,7 +3314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>45607</v>
       </c>
@@ -3317,7 +3323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>45608</v>
       </c>
@@ -3326,7 +3332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>45609</v>
       </c>
@@ -3335,7 +3341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45610</v>
       </c>
@@ -3344,7 +3350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>45611</v>
       </c>
@@ -3353,7 +3359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>45612</v>
       </c>
@@ -3362,7 +3368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>45613</v>
       </c>
@@ -3371,7 +3377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>45614</v>
       </c>
@@ -3380,7 +3386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>45615</v>
       </c>
@@ -3389,7 +3395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>45616</v>
       </c>
@@ -3398,7 +3404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>45617</v>
       </c>
@@ -3407,7 +3413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>45618</v>
       </c>
@@ -3416,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>45619</v>
       </c>
@@ -3425,7 +3431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>45620</v>
       </c>
@@ -3434,7 +3440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>45621</v>
       </c>
@@ -3443,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>45622</v>
       </c>
@@ -3452,7 +3458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>45623</v>
       </c>
@@ -3461,7 +3467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>45624</v>
       </c>
@@ -3470,7 +3476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>45625</v>
       </c>
@@ -3479,7 +3485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>45626</v>
       </c>
@@ -3488,7 +3494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>45627</v>
       </c>
@@ -3497,7 +3503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>45628</v>
       </c>
@@ -3506,7 +3512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>45629</v>
       </c>
@@ -3515,7 +3521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>45630</v>
       </c>
@@ -3524,7 +3530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>45631</v>
       </c>
@@ -3533,7 +3539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>45632</v>
       </c>
@@ -3542,7 +3548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>45633</v>
       </c>
@@ -3551,7 +3557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>45634</v>
       </c>
@@ -3560,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>45635</v>
       </c>
@@ -3569,7 +3575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>45636</v>
       </c>
@@ -3578,7 +3584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>45637</v>
       </c>
@@ -3587,7 +3593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>45638</v>
       </c>
@@ -3596,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>45639</v>
       </c>
@@ -3605,7 +3611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>45640</v>
       </c>
@@ -3614,7 +3620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>45641</v>
       </c>
@@ -3623,7 +3629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>45642</v>
       </c>
@@ -3632,7 +3638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>45643</v>
       </c>
@@ -3641,7 +3647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>45644</v>
       </c>
@@ -3650,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>45645</v>
       </c>
@@ -3659,7 +3665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>45646</v>
       </c>
@@ -3668,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>45647</v>
       </c>
@@ -3677,7 +3683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>45648</v>
       </c>
@@ -3686,7 +3692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>45649</v>
       </c>
@@ -3695,7 +3701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>45650</v>
       </c>
@@ -3704,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>45651</v>
       </c>
@@ -3713,7 +3719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>45652</v>
       </c>
@@ -3722,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>45653</v>
       </c>
@@ -3731,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>45654</v>
       </c>
@@ -3740,7 +3746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>45655</v>
       </c>
@@ -3749,7 +3755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>45656</v>
       </c>
@@ -3758,7 +3764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>45657</v>
       </c>
@@ -3767,7 +3773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>45658</v>
       </c>
@@ -3776,7 +3782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>45659</v>
       </c>
@@ -3785,7 +3791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>45660</v>
       </c>
@@ -3794,7 +3800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>45661</v>
       </c>
@@ -3803,7 +3809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>45662</v>
       </c>
@@ -3812,7 +3818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>45663</v>
       </c>
@@ -3821,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>45664</v>
       </c>
@@ -3830,7 +3836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>45665</v>
       </c>
@@ -3839,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>45666</v>
       </c>
@@ -3848,7 +3854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>45667</v>
       </c>
@@ -3857,7 +3863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>45668</v>
       </c>
@@ -3866,7 +3872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>45669</v>
       </c>
@@ -3875,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>45670</v>
       </c>
@@ -3884,7 +3890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>45671</v>
       </c>
@@ -3893,7 +3899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>45672</v>
       </c>
@@ -3902,7 +3908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>45673</v>
       </c>
@@ -3911,7 +3917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>45674</v>
       </c>
@@ -3920,7 +3926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>45675</v>
       </c>
@@ -3929,7 +3935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>45676</v>
       </c>
@@ -3938,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>45677</v>
       </c>
@@ -3947,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>45678</v>
       </c>
@@ -3956,7 +3962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>45679</v>
       </c>
@@ -3965,7 +3971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>45680</v>
       </c>
@@ -3974,7 +3980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>45681</v>
       </c>
@@ -3983,7 +3989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>45682</v>
       </c>
@@ -3992,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>45683</v>
       </c>
@@ -4001,7 +4007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>45684</v>
       </c>
@@ -4010,7 +4016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>45685</v>
       </c>
@@ -4019,7 +4025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>45686</v>
       </c>
@@ -4028,7 +4034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>45687</v>
       </c>
@@ -4037,7 +4043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>45688</v>
       </c>
@@ -4046,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>45689</v>
       </c>
@@ -4055,7 +4061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>45690</v>
       </c>
@@ -4064,7 +4070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>45691</v>
       </c>
@@ -4073,19 +4079,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
     </row>
   </sheetData>
@@ -4101,15 +4107,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4123,7 +4129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45566</v>
       </c>
@@ -4132,7 +4138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45567</v>
       </c>
@@ -4141,7 +4147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45568</v>
       </c>
@@ -4150,7 +4156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45569</v>
       </c>
@@ -4159,7 +4165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>45570</v>
       </c>
@@ -4168,7 +4174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>45571</v>
       </c>
@@ -4177,7 +4183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>45572</v>
       </c>
@@ -4186,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>45573</v>
       </c>
@@ -4195,7 +4201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>45574</v>
       </c>
@@ -4204,7 +4210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>45575</v>
       </c>
@@ -4213,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>45576</v>
       </c>
@@ -4222,7 +4228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>45577</v>
       </c>
@@ -4231,7 +4237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>45578</v>
       </c>
@@ -4240,7 +4246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>45579</v>
       </c>
@@ -4249,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>45580</v>
       </c>
@@ -4258,7 +4264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>45581</v>
       </c>
@@ -4267,7 +4273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>45582</v>
       </c>
@@ -4276,7 +4282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>45583</v>
       </c>
@@ -4285,7 +4291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>45584</v>
       </c>
@@ -4294,7 +4300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>45585</v>
       </c>
@@ -4303,7 +4309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>45586</v>
       </c>
@@ -4312,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>45587</v>
       </c>
@@ -4321,7 +4327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>45588</v>
       </c>
@@ -4330,7 +4336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>45589</v>
       </c>
@@ -4339,7 +4345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>45590</v>
       </c>
@@ -4348,7 +4354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>45591</v>
       </c>
@@ -4357,7 +4363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>45592</v>
       </c>
@@ -4366,7 +4372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>45593</v>
       </c>
@@ -4375,7 +4381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>45594</v>
       </c>
@@ -4384,7 +4390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>45595</v>
       </c>
@@ -4393,7 +4399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>45596</v>
       </c>
@@ -4402,7 +4408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>45597</v>
       </c>
@@ -4411,7 +4417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>45598</v>
       </c>
@@ -4420,7 +4426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>45599</v>
       </c>
@@ -4429,7 +4435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>45600</v>
       </c>
@@ -4438,7 +4444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>45601</v>
       </c>
@@ -4447,7 +4453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>45602</v>
       </c>
@@ -4456,7 +4462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>45603</v>
       </c>
@@ -4465,7 +4471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>45604</v>
       </c>
@@ -4474,7 +4480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>45605</v>
       </c>
@@ -4483,7 +4489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>45606</v>
       </c>
@@ -4492,7 +4498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>45607</v>
       </c>
@@ -4501,7 +4507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>45608</v>
       </c>
@@ -4510,7 +4516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>45609</v>
       </c>
@@ -4519,7 +4525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45610</v>
       </c>
@@ -4528,7 +4534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>45611</v>
       </c>
@@ -4537,7 +4543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>45612</v>
       </c>
@@ -4546,7 +4552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>45613</v>
       </c>
@@ -4555,7 +4561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>45614</v>
       </c>
@@ -4564,7 +4570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>45615</v>
       </c>
@@ -4573,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>45616</v>
       </c>
@@ -4582,7 +4588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>45617</v>
       </c>
@@ -4591,7 +4597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>45618</v>
       </c>
@@ -4600,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>45619</v>
       </c>
@@ -4609,7 +4615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>45620</v>
       </c>
@@ -4618,7 +4624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>45621</v>
       </c>
@@ -4627,7 +4633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>45622</v>
       </c>
@@ -4636,7 +4642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>45623</v>
       </c>
@@ -4645,7 +4651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>45624</v>
       </c>
@@ -4654,7 +4660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>45625</v>
       </c>
@@ -4663,7 +4669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>45626</v>
       </c>
@@ -4672,7 +4678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>45627</v>
       </c>
@@ -4681,7 +4687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>45628</v>
       </c>
@@ -4690,7 +4696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>45629</v>
       </c>
@@ -4699,7 +4705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>45630</v>
       </c>
@@ -4708,7 +4714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>45631</v>
       </c>
@@ -4717,7 +4723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>45632</v>
       </c>
@@ -4726,7 +4732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>45633</v>
       </c>
@@ -4735,7 +4741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>45634</v>
       </c>
@@ -4744,7 +4750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>45635</v>
       </c>
@@ -4753,7 +4759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>45636</v>
       </c>
@@ -4762,7 +4768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>45637</v>
       </c>
@@ -4771,7 +4777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>45638</v>
       </c>
@@ -4780,7 +4786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>45639</v>
       </c>
@@ -4789,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>45640</v>
       </c>
@@ -4798,7 +4804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>45641</v>
       </c>
@@ -4807,7 +4813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>45642</v>
       </c>
@@ -4816,7 +4822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>45643</v>
       </c>
@@ -4825,7 +4831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>45644</v>
       </c>
@@ -4834,7 +4840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>45645</v>
       </c>
@@ -4843,7 +4849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>45646</v>
       </c>
@@ -4852,7 +4858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>45647</v>
       </c>
@@ -4861,7 +4867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>45648</v>
       </c>
@@ -4870,7 +4876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>45649</v>
       </c>
@@ -4879,7 +4885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>45650</v>
       </c>
@@ -4888,7 +4894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>45651</v>
       </c>
@@ -4897,7 +4903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>45652</v>
       </c>
@@ -4906,7 +4912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>45653</v>
       </c>
@@ -4915,7 +4921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>45654</v>
       </c>
@@ -4924,7 +4930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>45655</v>
       </c>
@@ -4933,7 +4939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>45656</v>
       </c>
@@ -4942,7 +4948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>45657</v>
       </c>
@@ -4951,7 +4957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>45658</v>
       </c>
@@ -4960,7 +4966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>45659</v>
       </c>
@@ -4969,7 +4975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>45660</v>
       </c>
@@ -4978,7 +4984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>45661</v>
       </c>
@@ -4987,7 +4993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>45662</v>
       </c>
@@ -4996,7 +5002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>45663</v>
       </c>
@@ -5005,7 +5011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>45664</v>
       </c>
@@ -5014,7 +5020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>45665</v>
       </c>
@@ -5023,7 +5029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>45666</v>
       </c>
@@ -5032,7 +5038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>45667</v>
       </c>
@@ -5041,7 +5047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>45668</v>
       </c>
@@ -5050,7 +5056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>45669</v>
       </c>
@@ -5059,7 +5065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>45670</v>
       </c>
@@ -5068,7 +5074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>45671</v>
       </c>
@@ -5077,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>45672</v>
       </c>
@@ -5086,7 +5092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>45673</v>
       </c>
@@ -5095,7 +5101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>45674</v>
       </c>
@@ -5104,7 +5110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>45675</v>
       </c>
@@ -5113,7 +5119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>45676</v>
       </c>
@@ -5122,7 +5128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>45677</v>
       </c>
@@ -5131,7 +5137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>45678</v>
       </c>
@@ -5140,7 +5146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>45679</v>
       </c>
@@ -5149,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>45680</v>
       </c>
@@ -5158,7 +5164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>45681</v>
       </c>
@@ -5167,7 +5173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>45682</v>
       </c>
@@ -5176,7 +5182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>45683</v>
       </c>
@@ -5185,7 +5191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>45684</v>
       </c>
@@ -5194,7 +5200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>45685</v>
       </c>
@@ -5203,7 +5209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>45686</v>
       </c>
@@ -5212,7 +5218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>45687</v>
       </c>
@@ -5221,7 +5227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>45688</v>
       </c>
@@ -5230,7 +5236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>45689</v>
       </c>
@@ -5239,7 +5245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>45690</v>
       </c>
@@ -5248,7 +5254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>45691</v>
       </c>
@@ -5257,19 +5263,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
     </row>
   </sheetData>
@@ -5285,14 +5291,14 @@
       <selection activeCell="E8" sqref="E8:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5303,7 +5309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45566</v>
       </c>
@@ -5316,7 +5322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45567</v>
       </c>
@@ -5329,7 +5335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45568</v>
       </c>
@@ -5342,7 +5348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45569</v>
       </c>
@@ -5355,7 +5361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>45570</v>
       </c>
@@ -5368,7 +5374,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>45571</v>
       </c>
@@ -5381,7 +5387,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>45572</v>
       </c>
@@ -5394,7 +5400,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>45573</v>
       </c>
@@ -5407,7 +5413,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>45574</v>
       </c>
@@ -5420,7 +5426,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>45575</v>
       </c>
@@ -5433,7 +5439,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>45576</v>
       </c>
@@ -5446,7 +5452,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>45577</v>
       </c>
@@ -5459,7 +5465,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>45578</v>
       </c>
@@ -5472,7 +5478,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>45579</v>
       </c>
@@ -5485,7 +5491,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>45580</v>
       </c>
@@ -5498,7 +5504,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>45581</v>
       </c>
@@ -5511,7 +5517,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>45582</v>
       </c>
@@ -5524,7 +5530,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>45583</v>
       </c>
@@ -5537,7 +5543,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>45584</v>
       </c>
@@ -5550,7 +5556,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>45585</v>
       </c>
@@ -5563,7 +5569,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>45586</v>
       </c>
@@ -5576,7 +5582,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>45587</v>
       </c>
@@ -5589,7 +5595,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>45588</v>
       </c>
@@ -5602,7 +5608,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>45589</v>
       </c>
@@ -5615,7 +5621,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>45590</v>
       </c>
@@ -5628,7 +5634,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>45591</v>
       </c>
@@ -5641,7 +5647,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>45592</v>
       </c>
@@ -5654,7 +5660,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>45593</v>
       </c>
@@ -5667,7 +5673,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>45594</v>
       </c>
@@ -5680,7 +5686,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>45595</v>
       </c>
@@ -5693,7 +5699,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>45596</v>
       </c>
@@ -5706,7 +5712,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>45597</v>
       </c>
@@ -5719,7 +5725,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>45598</v>
       </c>
@@ -5732,7 +5738,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>45599</v>
       </c>
@@ -5745,7 +5751,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>45600</v>
       </c>
@@ -5758,7 +5764,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>45601</v>
       </c>
@@ -5771,7 +5777,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>45602</v>
       </c>
@@ -5784,7 +5790,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>45603</v>
       </c>
@@ -5797,7 +5803,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>45604</v>
       </c>
@@ -5810,7 +5816,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>45605</v>
       </c>
@@ -5823,7 +5829,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>45606</v>
       </c>
@@ -5836,7 +5842,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>45607</v>
       </c>
@@ -5849,7 +5855,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>45608</v>
       </c>
@@ -5862,7 +5868,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>45609</v>
       </c>
@@ -5875,7 +5881,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45610</v>
       </c>
@@ -5888,7 +5894,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>45611</v>
       </c>
@@ -5901,7 +5907,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>45612</v>
       </c>
@@ -5914,7 +5920,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>45613</v>
       </c>
@@ -5927,7 +5933,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>45614</v>
       </c>
@@ -5940,7 +5946,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>45615</v>
       </c>
@@ -5953,7 +5959,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>45616</v>
       </c>
@@ -5966,7 +5972,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>45617</v>
       </c>
@@ -5979,7 +5985,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>45618</v>
       </c>
@@ -5992,7 +5998,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>45619</v>
       </c>
@@ -6005,7 +6011,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>45620</v>
       </c>
@@ -6018,7 +6024,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>45621</v>
       </c>
@@ -6031,7 +6037,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>45622</v>
       </c>
@@ -6044,7 +6050,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>45623</v>
       </c>
@@ -6057,7 +6063,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>45624</v>
       </c>
@@ -6070,7 +6076,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>45625</v>
       </c>
@@ -6083,7 +6089,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>45626</v>
       </c>
@@ -6096,7 +6102,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>45627</v>
       </c>
@@ -6109,7 +6115,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>45628</v>
       </c>
@@ -6122,7 +6128,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>45629</v>
       </c>
@@ -6135,7 +6141,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>45630</v>
       </c>
@@ -6148,7 +6154,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>45631</v>
       </c>
@@ -6161,7 +6167,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>45632</v>
       </c>
@@ -6174,7 +6180,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>45633</v>
       </c>
@@ -6187,7 +6193,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>45634</v>
       </c>
@@ -6200,7 +6206,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>45635</v>
       </c>
@@ -6213,7 +6219,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>45636</v>
       </c>
@@ -6226,7 +6232,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>45637</v>
       </c>
@@ -6239,7 +6245,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>45638</v>
       </c>
@@ -6252,7 +6258,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>45639</v>
       </c>
@@ -6265,7 +6271,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>45640</v>
       </c>
@@ -6278,7 +6284,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>45641</v>
       </c>
@@ -6291,7 +6297,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>45642</v>
       </c>
@@ -6304,7 +6310,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>45643</v>
       </c>
@@ -6317,7 +6323,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>45644</v>
       </c>
@@ -6330,7 +6336,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>45645</v>
       </c>
@@ -6343,7 +6349,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>45646</v>
       </c>
@@ -6356,7 +6362,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>45647</v>
       </c>
@@ -6369,7 +6375,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>45648</v>
       </c>
@@ -6382,7 +6388,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>45649</v>
       </c>
@@ -6395,7 +6401,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>45650</v>
       </c>
@@ -6408,7 +6414,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>45651</v>
       </c>
@@ -6421,7 +6427,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>45652</v>
       </c>
@@ -6434,7 +6440,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>45653</v>
       </c>
@@ -6447,7 +6453,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>45654</v>
       </c>
@@ -6460,7 +6466,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>45655</v>
       </c>
@@ -6473,7 +6479,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>45656</v>
       </c>
@@ -6486,7 +6492,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>45657</v>
       </c>
@@ -6499,7 +6505,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>45658</v>
       </c>
@@ -6512,7 +6518,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>45659</v>
       </c>
@@ -6525,7 +6531,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>45660</v>
       </c>
@@ -6538,7 +6544,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>45661</v>
       </c>
@@ -6551,7 +6557,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>45662</v>
       </c>
@@ -6564,7 +6570,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>45663</v>
       </c>
@@ -6577,7 +6583,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>45664</v>
       </c>
@@ -6590,7 +6596,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>45665</v>
       </c>
@@ -6603,7 +6609,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>45666</v>
       </c>
@@ -6616,7 +6622,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>45667</v>
       </c>
@@ -6629,7 +6635,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>45668</v>
       </c>
@@ -6642,7 +6648,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>45669</v>
       </c>
@@ -6655,7 +6661,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>45670</v>
       </c>
@@ -6668,7 +6674,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>45671</v>
       </c>
@@ -6681,7 +6687,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>45672</v>
       </c>
@@ -6694,7 +6700,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>45673</v>
       </c>
@@ -6707,7 +6713,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>45674</v>
       </c>
@@ -6720,7 +6726,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>45675</v>
       </c>
@@ -6733,7 +6739,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>45676</v>
       </c>
@@ -6746,7 +6752,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>45677</v>
       </c>
@@ -6759,7 +6765,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>45678</v>
       </c>
@@ -6772,7 +6778,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>45679</v>
       </c>
@@ -6785,7 +6791,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>45680</v>
       </c>
@@ -6798,7 +6804,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>45681</v>
       </c>
@@ -6811,7 +6817,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>45682</v>
       </c>
@@ -6824,7 +6830,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>45683</v>
       </c>
@@ -6837,7 +6843,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>45684</v>
       </c>
@@ -6850,7 +6856,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>45685</v>
       </c>
@@ -6863,7 +6869,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>45686</v>
       </c>
@@ -6876,7 +6882,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>45687</v>
       </c>
@@ -6889,7 +6895,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>45688</v>
       </c>
@@ -6902,7 +6908,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>45689</v>
       </c>
@@ -6915,7 +6921,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>45690</v>
       </c>
@@ -6928,7 +6934,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>45691</v>
       </c>
@@ -6941,19 +6947,19 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
     </row>
   </sheetData>

--- a/ID_zespolu_ewidencja.xlsx
+++ b/ID_zespolu_ewidencja.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mskrzyp\Desktop\Github\e.leclerc\s5-Android-APP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Politechnika\Inżynieria oprogramowania\s5-Android-APP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6CC6F7-3AD6-4781-B058-7904D1E91249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50782596-2002-46D4-ACB6-779325AD66DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1_Mateusz_Skrzypek" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>Data</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>9:30 -&gt; 15:30 , do 18:00?</t>
+  </si>
+  <si>
+    <t>Creating a presentation about our project</t>
   </si>
 </sst>
 </file>
@@ -649,9 +652,15 @@
       <c r="A10" s="2">
         <v>45574</v>
       </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
       <c r="D10" s="1">
         <f>B10+D9</f>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -660,7 +669,7 @@
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -669,7 +678,7 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -678,7 +687,7 @@
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -687,7 +696,7 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -696,7 +705,7 @@
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -705,7 +714,7 @@
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -714,7 +723,7 @@
       </c>
       <c r="D17" s="1">
         <f>B17+D16</f>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -723,7 +732,7 @@
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -732,7 +741,7 @@
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -741,7 +750,7 @@
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -750,7 +759,7 @@
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -759,7 +768,7 @@
       </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -768,7 +777,7 @@
       </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -777,7 +786,7 @@
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -786,7 +795,7 @@
       </c>
       <c r="D25" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -795,7 +804,7 @@
       </c>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -804,7 +813,7 @@
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -813,7 +822,7 @@
       </c>
       <c r="D28" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -822,7 +831,7 @@
       </c>
       <c r="D29" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -831,7 +840,7 @@
       </c>
       <c r="D30" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -840,7 +849,7 @@
       </c>
       <c r="D31" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -849,7 +858,7 @@
       </c>
       <c r="D32" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -858,7 +867,7 @@
       </c>
       <c r="D33" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -867,7 +876,7 @@
       </c>
       <c r="D34" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -876,7 +885,7 @@
       </c>
       <c r="D35" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -885,7 +894,7 @@
       </c>
       <c r="D36" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -894,7 +903,7 @@
       </c>
       <c r="D37" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -903,7 +912,7 @@
       </c>
       <c r="D38" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -912,7 +921,7 @@
       </c>
       <c r="D39" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -921,7 +930,7 @@
       </c>
       <c r="D40" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -930,7 +939,7 @@
       </c>
       <c r="D41" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -939,7 +948,7 @@
       </c>
       <c r="D42" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -948,7 +957,7 @@
       </c>
       <c r="D43" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -957,7 +966,7 @@
       </c>
       <c r="D44" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -966,7 +975,7 @@
       </c>
       <c r="D45" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -975,7 +984,7 @@
       </c>
       <c r="D46" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -984,7 +993,7 @@
       </c>
       <c r="D47" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -993,7 +1002,7 @@
       </c>
       <c r="D48" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1002,7 +1011,7 @@
       </c>
       <c r="D49" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1011,7 +1020,7 @@
       </c>
       <c r="D50" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1020,7 +1029,7 @@
       </c>
       <c r="D51" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1029,7 +1038,7 @@
       </c>
       <c r="D52" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1038,7 +1047,7 @@
       </c>
       <c r="D53" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1047,7 +1056,7 @@
       </c>
       <c r="D54" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1056,7 +1065,7 @@
       </c>
       <c r="D55" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1065,7 +1074,7 @@
       </c>
       <c r="D56" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1074,7 +1083,7 @@
       </c>
       <c r="D57" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1083,7 +1092,7 @@
       </c>
       <c r="D58" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1092,7 +1101,7 @@
       </c>
       <c r="D59" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1101,7 +1110,7 @@
       </c>
       <c r="D60" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1110,7 +1119,7 @@
       </c>
       <c r="D61" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1119,7 +1128,7 @@
       </c>
       <c r="D62" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1128,7 +1137,7 @@
       </c>
       <c r="D63" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1137,7 +1146,7 @@
       </c>
       <c r="D64" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1146,7 +1155,7 @@
       </c>
       <c r="D65" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1155,7 +1164,7 @@
       </c>
       <c r="D66" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1164,7 +1173,7 @@
       </c>
       <c r="D67" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1173,7 +1182,7 @@
       </c>
       <c r="D68" s="1">
         <f t="shared" ref="D68:D127" si="1">B68+D67</f>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1182,7 +1191,7 @@
       </c>
       <c r="D69" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1191,7 +1200,7 @@
       </c>
       <c r="D70" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1200,7 +1209,7 @@
       </c>
       <c r="D71" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1209,7 +1218,7 @@
       </c>
       <c r="D72" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1218,7 +1227,7 @@
       </c>
       <c r="D73" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1227,7 +1236,7 @@
       </c>
       <c r="D74" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1236,7 +1245,7 @@
       </c>
       <c r="D75" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1245,7 +1254,7 @@
       </c>
       <c r="D76" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1254,7 +1263,7 @@
       </c>
       <c r="D77" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -1263,7 +1272,7 @@
       </c>
       <c r="D78" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1272,7 +1281,7 @@
       </c>
       <c r="D79" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1281,7 +1290,7 @@
       </c>
       <c r="D80" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -1290,7 +1299,7 @@
       </c>
       <c r="D81" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -1299,7 +1308,7 @@
       </c>
       <c r="D82" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -1308,7 +1317,7 @@
       </c>
       <c r="D83" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -1317,7 +1326,7 @@
       </c>
       <c r="D84" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -1326,7 +1335,7 @@
       </c>
       <c r="D85" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -1335,7 +1344,7 @@
       </c>
       <c r="D86" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -1344,7 +1353,7 @@
       </c>
       <c r="D87" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -1353,7 +1362,7 @@
       </c>
       <c r="D88" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -1362,7 +1371,7 @@
       </c>
       <c r="D89" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -1371,7 +1380,7 @@
       </c>
       <c r="D90" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -1380,7 +1389,7 @@
       </c>
       <c r="D91" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -1389,7 +1398,7 @@
       </c>
       <c r="D92" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -1398,7 +1407,7 @@
       </c>
       <c r="D93" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -1407,7 +1416,7 @@
       </c>
       <c r="D94" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -1416,7 +1425,7 @@
       </c>
       <c r="D95" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -1425,7 +1434,7 @@
       </c>
       <c r="D96" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -1434,7 +1443,7 @@
       </c>
       <c r="D97" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -1443,7 +1452,7 @@
       </c>
       <c r="D98" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -1452,7 +1461,7 @@
       </c>
       <c r="D99" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -1461,7 +1470,7 @@
       </c>
       <c r="D100" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -1470,7 +1479,7 @@
       </c>
       <c r="D101" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -1479,7 +1488,7 @@
       </c>
       <c r="D102" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -1488,7 +1497,7 @@
       </c>
       <c r="D103" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -1497,7 +1506,7 @@
       </c>
       <c r="D104" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -1506,7 +1515,7 @@
       </c>
       <c r="D105" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -1515,7 +1524,7 @@
       </c>
       <c r="D106" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -1524,7 +1533,7 @@
       </c>
       <c r="D107" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -1533,7 +1542,7 @@
       </c>
       <c r="D108" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -1542,7 +1551,7 @@
       </c>
       <c r="D109" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -1551,7 +1560,7 @@
       </c>
       <c r="D110" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -1560,7 +1569,7 @@
       </c>
       <c r="D111" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -1569,7 +1578,7 @@
       </c>
       <c r="D112" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -1578,7 +1587,7 @@
       </c>
       <c r="D113" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -1587,7 +1596,7 @@
       </c>
       <c r="D114" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -1596,7 +1605,7 @@
       </c>
       <c r="D115" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -1605,7 +1614,7 @@
       </c>
       <c r="D116" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -1614,7 +1623,7 @@
       </c>
       <c r="D117" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -1623,7 +1632,7 @@
       </c>
       <c r="D118" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -1632,7 +1641,7 @@
       </c>
       <c r="D119" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -1641,7 +1650,7 @@
       </c>
       <c r="D120" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -1650,7 +1659,7 @@
       </c>
       <c r="D121" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -1659,7 +1668,7 @@
       </c>
       <c r="D122" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -1668,7 +1677,7 @@
       </c>
       <c r="D123" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -1677,7 +1686,7 @@
       </c>
       <c r="D124" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -1686,7 +1695,7 @@
       </c>
       <c r="D125" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -1695,7 +1704,7 @@
       </c>
       <c r="D126" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -1704,7 +1713,7 @@
       </c>
       <c r="D127" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -5413,11 +5422,11 @@
       </c>
       <c r="B10" s="1">
         <f>SUM('1_Mateusz_Skrzypek'!B10,'2_Imię_Nazwisko'!B10,'4_Imię_Nazwisko'!B10)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -5430,7 +5439,7 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -5443,7 +5452,7 @@
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -5456,7 +5465,7 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5469,7 +5478,7 @@
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -5482,7 +5491,7 @@
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -5495,7 +5504,7 @@
       </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5508,7 +5517,7 @@
       </c>
       <c r="C17" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -5521,7 +5530,7 @@
       </c>
       <c r="C18" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -5534,7 +5543,7 @@
       </c>
       <c r="C19" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -5547,7 +5556,7 @@
       </c>
       <c r="C20" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -5560,7 +5569,7 @@
       </c>
       <c r="C21" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -5573,7 +5582,7 @@
       </c>
       <c r="C22" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -5586,7 +5595,7 @@
       </c>
       <c r="C23" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -5599,7 +5608,7 @@
       </c>
       <c r="C24" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -5612,7 +5621,7 @@
       </c>
       <c r="C25" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -5625,7 +5634,7 @@
       </c>
       <c r="C26" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -5638,7 +5647,7 @@
       </c>
       <c r="C27" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -5651,7 +5660,7 @@
       </c>
       <c r="C28" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -5664,7 +5673,7 @@
       </c>
       <c r="C29" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -5677,7 +5686,7 @@
       </c>
       <c r="C30" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -5690,7 +5699,7 @@
       </c>
       <c r="C31" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -5703,7 +5712,7 @@
       </c>
       <c r="C32" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -5716,7 +5725,7 @@
       </c>
       <c r="C33" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -5729,7 +5738,7 @@
       </c>
       <c r="C34" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -5742,7 +5751,7 @@
       </c>
       <c r="C35" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -5755,7 +5764,7 @@
       </c>
       <c r="C36" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -5768,7 +5777,7 @@
       </c>
       <c r="C37" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -5781,7 +5790,7 @@
       </c>
       <c r="C38" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -5794,7 +5803,7 @@
       </c>
       <c r="C39" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -5807,7 +5816,7 @@
       </c>
       <c r="C40" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -5820,7 +5829,7 @@
       </c>
       <c r="C41" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -5833,7 +5842,7 @@
       </c>
       <c r="C42" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -5846,7 +5855,7 @@
       </c>
       <c r="C43" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -5859,7 +5868,7 @@
       </c>
       <c r="C44" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -5872,7 +5881,7 @@
       </c>
       <c r="C45" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -5885,7 +5894,7 @@
       </c>
       <c r="C46" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -5898,7 +5907,7 @@
       </c>
       <c r="C47" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -5911,7 +5920,7 @@
       </c>
       <c r="C48" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -5924,7 +5933,7 @@
       </c>
       <c r="C49" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -5937,7 +5946,7 @@
       </c>
       <c r="C50" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -5950,7 +5959,7 @@
       </c>
       <c r="C51" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -5963,7 +5972,7 @@
       </c>
       <c r="C52" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -5976,7 +5985,7 @@
       </c>
       <c r="C53" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -5989,7 +5998,7 @@
       </c>
       <c r="C54" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -6002,7 +6011,7 @@
       </c>
       <c r="C55" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -6015,7 +6024,7 @@
       </c>
       <c r="C56" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -6028,7 +6037,7 @@
       </c>
       <c r="C57" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -6041,7 +6050,7 @@
       </c>
       <c r="C58" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -6054,7 +6063,7 @@
       </c>
       <c r="C59" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -6067,7 +6076,7 @@
       </c>
       <c r="C60" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -6080,7 +6089,7 @@
       </c>
       <c r="C61" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -6093,7 +6102,7 @@
       </c>
       <c r="C62" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -6106,7 +6115,7 @@
       </c>
       <c r="C63" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -6119,7 +6128,7 @@
       </c>
       <c r="C64" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -6132,7 +6141,7 @@
       </c>
       <c r="C65" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -6145,7 +6154,7 @@
       </c>
       <c r="C66" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -6158,7 +6167,7 @@
       </c>
       <c r="C67" s="1">
         <f t="shared" si="0"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -6171,7 +6180,7 @@
       </c>
       <c r="C68" s="1">
         <f t="shared" ref="C68:C127" si="1">C67+B68</f>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -6184,7 +6193,7 @@
       </c>
       <c r="C69" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -6197,7 +6206,7 @@
       </c>
       <c r="C70" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -6210,7 +6219,7 @@
       </c>
       <c r="C71" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -6223,7 +6232,7 @@
       </c>
       <c r="C72" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -6236,7 +6245,7 @@
       </c>
       <c r="C73" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -6249,7 +6258,7 @@
       </c>
       <c r="C74" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -6262,7 +6271,7 @@
       </c>
       <c r="C75" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -6275,7 +6284,7 @@
       </c>
       <c r="C76" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -6288,7 +6297,7 @@
       </c>
       <c r="C77" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -6301,7 +6310,7 @@
       </c>
       <c r="C78" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -6314,7 +6323,7 @@
       </c>
       <c r="C79" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -6327,7 +6336,7 @@
       </c>
       <c r="C80" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -6340,7 +6349,7 @@
       </c>
       <c r="C81" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -6353,7 +6362,7 @@
       </c>
       <c r="C82" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -6366,7 +6375,7 @@
       </c>
       <c r="C83" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -6379,7 +6388,7 @@
       </c>
       <c r="C84" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -6392,7 +6401,7 @@
       </c>
       <c r="C85" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -6405,7 +6414,7 @@
       </c>
       <c r="C86" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -6418,7 +6427,7 @@
       </c>
       <c r="C87" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -6431,7 +6440,7 @@
       </c>
       <c r="C88" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -6444,7 +6453,7 @@
       </c>
       <c r="C89" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -6457,7 +6466,7 @@
       </c>
       <c r="C90" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -6470,7 +6479,7 @@
       </c>
       <c r="C91" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -6483,7 +6492,7 @@
       </c>
       <c r="C92" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -6496,7 +6505,7 @@
       </c>
       <c r="C93" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -6509,7 +6518,7 @@
       </c>
       <c r="C94" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -6522,7 +6531,7 @@
       </c>
       <c r="C95" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -6535,7 +6544,7 @@
       </c>
       <c r="C96" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -6548,7 +6557,7 @@
       </c>
       <c r="C97" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -6561,7 +6570,7 @@
       </c>
       <c r="C98" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -6574,7 +6583,7 @@
       </c>
       <c r="C99" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -6587,7 +6596,7 @@
       </c>
       <c r="C100" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -6600,7 +6609,7 @@
       </c>
       <c r="C101" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -6613,7 +6622,7 @@
       </c>
       <c r="C102" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -6626,7 +6635,7 @@
       </c>
       <c r="C103" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -6639,7 +6648,7 @@
       </c>
       <c r="C104" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -6652,7 +6661,7 @@
       </c>
       <c r="C105" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -6665,7 +6674,7 @@
       </c>
       <c r="C106" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -6678,7 +6687,7 @@
       </c>
       <c r="C107" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -6691,7 +6700,7 @@
       </c>
       <c r="C108" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -6704,7 +6713,7 @@
       </c>
       <c r="C109" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -6717,7 +6726,7 @@
       </c>
       <c r="C110" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -6730,7 +6739,7 @@
       </c>
       <c r="C111" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -6743,7 +6752,7 @@
       </c>
       <c r="C112" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -6756,7 +6765,7 @@
       </c>
       <c r="C113" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -6769,7 +6778,7 @@
       </c>
       <c r="C114" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -6782,7 +6791,7 @@
       </c>
       <c r="C115" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -6795,7 +6804,7 @@
       </c>
       <c r="C116" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -6808,7 +6817,7 @@
       </c>
       <c r="C117" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -6821,7 +6830,7 @@
       </c>
       <c r="C118" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -6834,7 +6843,7 @@
       </c>
       <c r="C119" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -6847,7 +6856,7 @@
       </c>
       <c r="C120" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -6860,7 +6869,7 @@
       </c>
       <c r="C121" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -6873,7 +6882,7 @@
       </c>
       <c r="C122" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -6886,7 +6895,7 @@
       </c>
       <c r="C123" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -6899,7 +6908,7 @@
       </c>
       <c r="C124" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -6912,7 +6921,7 @@
       </c>
       <c r="C125" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -6925,7 +6934,7 @@
       </c>
       <c r="C126" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -6938,7 +6947,7 @@
       </c>
       <c r="C127" s="1">
         <f t="shared" si="1"/>
-        <v>31.8</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -6962,6 +6971,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100BF63F47345AA104BAD8025403A332EC4" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="2b9be556d413d7c3e99fff097a4a98c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="880b73d8-af7f-42e3-972b-e46fe4ffca1b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="643da98f93f748be063e7f29d6c7d305" ns2:_="">
     <xsd:import namespace="880b73d8-af7f-42e3-972b-e46fe4ffca1b"/>
@@ -7105,22 +7129,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6570E11-21DF-40C1-8E5B-FD3CDF32C4F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21938D86-7413-468E-85B7-E79A45C27865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57B575B8-240F-4CC3-A552-189C22DB0968}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7136,21 +7162,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21938D86-7413-468E-85B7-E79A45C27865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6570E11-21DF-40C1-8E5B-FD3CDF32C4F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ID_zespolu_ewidencja.xlsx
+++ b/ID_zespolu_ewidencja.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Politechnika\Inżynieria oprogramowania\s5-Android-APP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50782596-2002-46D4-ACB6-779325AD66DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BFDC2F-F2F8-4A41-9635-DB6874FFDEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>Data</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Creating a presentation about our project</t>
+  </si>
+  <si>
+    <t>Legal analysis and refining the presentation.</t>
   </si>
 </sst>
 </file>
@@ -517,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,9 +670,15 @@
       <c r="A11" s="2">
         <v>45575</v>
       </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -678,7 +687,7 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -687,7 +696,7 @@
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -696,7 +705,7 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -705,7 +714,7 @@
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -714,7 +723,7 @@
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -723,7 +732,7 @@
       </c>
       <c r="D17" s="1">
         <f>B17+D16</f>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -732,7 +741,7 @@
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -741,7 +750,7 @@
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -750,7 +759,7 @@
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -759,7 +768,7 @@
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -768,7 +777,7 @@
       </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -777,7 +786,7 @@
       </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -786,7 +795,7 @@
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -795,7 +804,7 @@
       </c>
       <c r="D25" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -804,7 +813,7 @@
       </c>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -813,7 +822,7 @@
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -822,7 +831,7 @@
       </c>
       <c r="D28" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -831,7 +840,7 @@
       </c>
       <c r="D29" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -840,7 +849,7 @@
       </c>
       <c r="D30" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -849,7 +858,7 @@
       </c>
       <c r="D31" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -858,7 +867,7 @@
       </c>
       <c r="D32" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -867,7 +876,7 @@
       </c>
       <c r="D33" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -876,7 +885,7 @@
       </c>
       <c r="D34" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -885,7 +894,7 @@
       </c>
       <c r="D35" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -894,7 +903,7 @@
       </c>
       <c r="D36" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -903,7 +912,7 @@
       </c>
       <c r="D37" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -912,7 +921,7 @@
       </c>
       <c r="D38" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -921,7 +930,7 @@
       </c>
       <c r="D39" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -930,7 +939,7 @@
       </c>
       <c r="D40" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -939,7 +948,7 @@
       </c>
       <c r="D41" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -948,7 +957,7 @@
       </c>
       <c r="D42" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -957,7 +966,7 @@
       </c>
       <c r="D43" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -966,7 +975,7 @@
       </c>
       <c r="D44" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -975,7 +984,7 @@
       </c>
       <c r="D45" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -984,7 +993,7 @@
       </c>
       <c r="D46" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -993,7 +1002,7 @@
       </c>
       <c r="D47" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1002,7 +1011,7 @@
       </c>
       <c r="D48" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1011,7 +1020,7 @@
       </c>
       <c r="D49" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1020,7 +1029,7 @@
       </c>
       <c r="D50" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1029,7 +1038,7 @@
       </c>
       <c r="D51" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1038,7 +1047,7 @@
       </c>
       <c r="D52" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1047,7 +1056,7 @@
       </c>
       <c r="D53" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1056,7 +1065,7 @@
       </c>
       <c r="D54" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1065,7 +1074,7 @@
       </c>
       <c r="D55" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1074,7 +1083,7 @@
       </c>
       <c r="D56" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1083,7 +1092,7 @@
       </c>
       <c r="D57" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1092,7 +1101,7 @@
       </c>
       <c r="D58" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1101,7 +1110,7 @@
       </c>
       <c r="D59" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1110,7 +1119,7 @@
       </c>
       <c r="D60" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1119,7 +1128,7 @@
       </c>
       <c r="D61" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1128,7 +1137,7 @@
       </c>
       <c r="D62" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1137,7 +1146,7 @@
       </c>
       <c r="D63" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1146,7 +1155,7 @@
       </c>
       <c r="D64" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1155,7 +1164,7 @@
       </c>
       <c r="D65" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1164,7 +1173,7 @@
       </c>
       <c r="D66" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1173,7 +1182,7 @@
       </c>
       <c r="D67" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1182,7 +1191,7 @@
       </c>
       <c r="D68" s="1">
         <f t="shared" ref="D68:D127" si="1">B68+D67</f>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1191,7 +1200,7 @@
       </c>
       <c r="D69" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1200,7 +1209,7 @@
       </c>
       <c r="D70" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1209,7 +1218,7 @@
       </c>
       <c r="D71" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1218,7 +1227,7 @@
       </c>
       <c r="D72" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1227,7 +1236,7 @@
       </c>
       <c r="D73" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1236,7 +1245,7 @@
       </c>
       <c r="D74" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1245,7 +1254,7 @@
       </c>
       <c r="D75" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1254,7 +1263,7 @@
       </c>
       <c r="D76" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1263,7 +1272,7 @@
       </c>
       <c r="D77" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -1272,7 +1281,7 @@
       </c>
       <c r="D78" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1281,7 +1290,7 @@
       </c>
       <c r="D79" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1290,7 +1299,7 @@
       </c>
       <c r="D80" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -1299,7 +1308,7 @@
       </c>
       <c r="D81" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -1308,7 +1317,7 @@
       </c>
       <c r="D82" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -1317,7 +1326,7 @@
       </c>
       <c r="D83" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -1326,7 +1335,7 @@
       </c>
       <c r="D84" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -1335,7 +1344,7 @@
       </c>
       <c r="D85" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -1344,7 +1353,7 @@
       </c>
       <c r="D86" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -1353,7 +1362,7 @@
       </c>
       <c r="D87" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -1362,7 +1371,7 @@
       </c>
       <c r="D88" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -1371,7 +1380,7 @@
       </c>
       <c r="D89" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -1380,7 +1389,7 @@
       </c>
       <c r="D90" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -1389,7 +1398,7 @@
       </c>
       <c r="D91" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -1398,7 +1407,7 @@
       </c>
       <c r="D92" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -1407,7 +1416,7 @@
       </c>
       <c r="D93" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -1416,7 +1425,7 @@
       </c>
       <c r="D94" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -1425,7 +1434,7 @@
       </c>
       <c r="D95" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -1434,7 +1443,7 @@
       </c>
       <c r="D96" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -1443,7 +1452,7 @@
       </c>
       <c r="D97" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -1452,7 +1461,7 @@
       </c>
       <c r="D98" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -1461,7 +1470,7 @@
       </c>
       <c r="D99" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -1470,7 +1479,7 @@
       </c>
       <c r="D100" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -1479,7 +1488,7 @@
       </c>
       <c r="D101" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -1488,7 +1497,7 @@
       </c>
       <c r="D102" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -1497,7 +1506,7 @@
       </c>
       <c r="D103" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -1506,7 +1515,7 @@
       </c>
       <c r="D104" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -1515,7 +1524,7 @@
       </c>
       <c r="D105" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -1524,7 +1533,7 @@
       </c>
       <c r="D106" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -1533,7 +1542,7 @@
       </c>
       <c r="D107" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -1542,7 +1551,7 @@
       </c>
       <c r="D108" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -1551,7 +1560,7 @@
       </c>
       <c r="D109" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -1560,7 +1569,7 @@
       </c>
       <c r="D110" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -1569,7 +1578,7 @@
       </c>
       <c r="D111" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -1578,7 +1587,7 @@
       </c>
       <c r="D112" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -1587,7 +1596,7 @@
       </c>
       <c r="D113" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -1596,7 +1605,7 @@
       </c>
       <c r="D114" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -1605,7 +1614,7 @@
       </c>
       <c r="D115" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -1614,7 +1623,7 @@
       </c>
       <c r="D116" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -1623,7 +1632,7 @@
       </c>
       <c r="D117" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -1632,7 +1641,7 @@
       </c>
       <c r="D118" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -1641,7 +1650,7 @@
       </c>
       <c r="D119" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -1650,7 +1659,7 @@
       </c>
       <c r="D120" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -1659,7 +1668,7 @@
       </c>
       <c r="D121" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -1668,7 +1677,7 @@
       </c>
       <c r="D122" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -1677,7 +1686,7 @@
       </c>
       <c r="D123" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -1686,7 +1695,7 @@
       </c>
       <c r="D124" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -1695,7 +1704,7 @@
       </c>
       <c r="D125" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -1704,7 +1713,7 @@
       </c>
       <c r="D126" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -1713,7 +1722,7 @@
       </c>
       <c r="D127" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -5435,11 +5444,11 @@
       </c>
       <c r="B11" s="1">
         <f>SUM('1_Mateusz_Skrzypek'!B11,'2_Imię_Nazwisko'!B11,'4_Imię_Nazwisko'!B11)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -5452,7 +5461,7 @@
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -5465,7 +5474,7 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5478,7 +5487,7 @@
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -5491,7 +5500,7 @@
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -5504,7 +5513,7 @@
       </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5517,7 +5526,7 @@
       </c>
       <c r="C17" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -5530,7 +5539,7 @@
       </c>
       <c r="C18" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -5543,7 +5552,7 @@
       </c>
       <c r="C19" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -5556,7 +5565,7 @@
       </c>
       <c r="C20" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -5569,7 +5578,7 @@
       </c>
       <c r="C21" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -5582,7 +5591,7 @@
       </c>
       <c r="C22" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -5595,7 +5604,7 @@
       </c>
       <c r="C23" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -5608,7 +5617,7 @@
       </c>
       <c r="C24" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -5621,7 +5630,7 @@
       </c>
       <c r="C25" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -5634,7 +5643,7 @@
       </c>
       <c r="C26" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -5647,7 +5656,7 @@
       </c>
       <c r="C27" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -5660,7 +5669,7 @@
       </c>
       <c r="C28" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -5673,7 +5682,7 @@
       </c>
       <c r="C29" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -5686,7 +5695,7 @@
       </c>
       <c r="C30" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -5699,7 +5708,7 @@
       </c>
       <c r="C31" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -5712,7 +5721,7 @@
       </c>
       <c r="C32" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -5725,7 +5734,7 @@
       </c>
       <c r="C33" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -5738,7 +5747,7 @@
       </c>
       <c r="C34" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -5751,7 +5760,7 @@
       </c>
       <c r="C35" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -5764,7 +5773,7 @@
       </c>
       <c r="C36" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -5777,7 +5786,7 @@
       </c>
       <c r="C37" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -5790,7 +5799,7 @@
       </c>
       <c r="C38" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -5803,7 +5812,7 @@
       </c>
       <c r="C39" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -5816,7 +5825,7 @@
       </c>
       <c r="C40" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -5829,7 +5838,7 @@
       </c>
       <c r="C41" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -5842,7 +5851,7 @@
       </c>
       <c r="C42" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -5855,7 +5864,7 @@
       </c>
       <c r="C43" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -5868,7 +5877,7 @@
       </c>
       <c r="C44" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -5881,7 +5890,7 @@
       </c>
       <c r="C45" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -5894,7 +5903,7 @@
       </c>
       <c r="C46" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -5907,7 +5916,7 @@
       </c>
       <c r="C47" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -5920,7 +5929,7 @@
       </c>
       <c r="C48" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -5933,7 +5942,7 @@
       </c>
       <c r="C49" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -5946,7 +5955,7 @@
       </c>
       <c r="C50" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -5959,7 +5968,7 @@
       </c>
       <c r="C51" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -5972,7 +5981,7 @@
       </c>
       <c r="C52" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -5985,7 +5994,7 @@
       </c>
       <c r="C53" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -5998,7 +6007,7 @@
       </c>
       <c r="C54" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -6011,7 +6020,7 @@
       </c>
       <c r="C55" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -6024,7 +6033,7 @@
       </c>
       <c r="C56" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -6037,7 +6046,7 @@
       </c>
       <c r="C57" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -6050,7 +6059,7 @@
       </c>
       <c r="C58" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -6063,7 +6072,7 @@
       </c>
       <c r="C59" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -6076,7 +6085,7 @@
       </c>
       <c r="C60" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -6089,7 +6098,7 @@
       </c>
       <c r="C61" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -6102,7 +6111,7 @@
       </c>
       <c r="C62" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -6115,7 +6124,7 @@
       </c>
       <c r="C63" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -6128,7 +6137,7 @@
       </c>
       <c r="C64" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -6141,7 +6150,7 @@
       </c>
       <c r="C65" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -6154,7 +6163,7 @@
       </c>
       <c r="C66" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -6167,7 +6176,7 @@
       </c>
       <c r="C67" s="1">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -6180,7 +6189,7 @@
       </c>
       <c r="C68" s="1">
         <f t="shared" ref="C68:C127" si="1">C67+B68</f>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -6193,7 +6202,7 @@
       </c>
       <c r="C69" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -6206,7 +6215,7 @@
       </c>
       <c r="C70" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -6219,7 +6228,7 @@
       </c>
       <c r="C71" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -6232,7 +6241,7 @@
       </c>
       <c r="C72" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -6245,7 +6254,7 @@
       </c>
       <c r="C73" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -6258,7 +6267,7 @@
       </c>
       <c r="C74" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -6271,7 +6280,7 @@
       </c>
       <c r="C75" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -6284,7 +6293,7 @@
       </c>
       <c r="C76" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -6297,7 +6306,7 @@
       </c>
       <c r="C77" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -6310,7 +6319,7 @@
       </c>
       <c r="C78" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -6323,7 +6332,7 @@
       </c>
       <c r="C79" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -6336,7 +6345,7 @@
       </c>
       <c r="C80" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -6349,7 +6358,7 @@
       </c>
       <c r="C81" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -6362,7 +6371,7 @@
       </c>
       <c r="C82" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -6375,7 +6384,7 @@
       </c>
       <c r="C83" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -6388,7 +6397,7 @@
       </c>
       <c r="C84" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -6401,7 +6410,7 @@
       </c>
       <c r="C85" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -6414,7 +6423,7 @@
       </c>
       <c r="C86" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -6427,7 +6436,7 @@
       </c>
       <c r="C87" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -6440,7 +6449,7 @@
       </c>
       <c r="C88" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -6453,7 +6462,7 @@
       </c>
       <c r="C89" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -6466,7 +6475,7 @@
       </c>
       <c r="C90" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -6479,7 +6488,7 @@
       </c>
       <c r="C91" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -6492,7 +6501,7 @@
       </c>
       <c r="C92" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -6505,7 +6514,7 @@
       </c>
       <c r="C93" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -6518,7 +6527,7 @@
       </c>
       <c r="C94" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -6531,7 +6540,7 @@
       </c>
       <c r="C95" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -6544,7 +6553,7 @@
       </c>
       <c r="C96" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -6557,7 +6566,7 @@
       </c>
       <c r="C97" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -6570,7 +6579,7 @@
       </c>
       <c r="C98" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -6583,7 +6592,7 @@
       </c>
       <c r="C99" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -6596,7 +6605,7 @@
       </c>
       <c r="C100" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -6609,7 +6618,7 @@
       </c>
       <c r="C101" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -6622,7 +6631,7 @@
       </c>
       <c r="C102" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -6635,7 +6644,7 @@
       </c>
       <c r="C103" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -6648,7 +6657,7 @@
       </c>
       <c r="C104" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -6661,7 +6670,7 @@
       </c>
       <c r="C105" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -6674,7 +6683,7 @@
       </c>
       <c r="C106" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -6687,7 +6696,7 @@
       </c>
       <c r="C107" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -6700,7 +6709,7 @@
       </c>
       <c r="C108" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -6713,7 +6722,7 @@
       </c>
       <c r="C109" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -6726,7 +6735,7 @@
       </c>
       <c r="C110" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -6739,7 +6748,7 @@
       </c>
       <c r="C111" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -6752,7 +6761,7 @@
       </c>
       <c r="C112" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -6765,7 +6774,7 @@
       </c>
       <c r="C113" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -6778,7 +6787,7 @@
       </c>
       <c r="C114" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -6791,7 +6800,7 @@
       </c>
       <c r="C115" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -6804,7 +6813,7 @@
       </c>
       <c r="C116" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -6817,7 +6826,7 @@
       </c>
       <c r="C117" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -6830,7 +6839,7 @@
       </c>
       <c r="C118" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -6843,7 +6852,7 @@
       </c>
       <c r="C119" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -6856,7 +6865,7 @@
       </c>
       <c r="C120" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -6869,7 +6878,7 @@
       </c>
       <c r="C121" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -6882,7 +6891,7 @@
       </c>
       <c r="C122" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -6895,7 +6904,7 @@
       </c>
       <c r="C123" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -6908,7 +6917,7 @@
       </c>
       <c r="C124" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -6921,7 +6930,7 @@
       </c>
       <c r="C125" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -6934,7 +6943,7 @@
       </c>
       <c r="C126" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -6947,7 +6956,7 @@
       </c>
       <c r="C127" s="1">
         <f t="shared" si="1"/>
-        <v>35.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -6971,21 +6980,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100BF63F47345AA104BAD8025403A332EC4" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="2b9be556d413d7c3e99fff097a4a98c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="880b73d8-af7f-42e3-972b-e46fe4ffca1b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="643da98f93f748be063e7f29d6c7d305" ns2:_="">
     <xsd:import namespace="880b73d8-af7f-42e3-972b-e46fe4ffca1b"/>
@@ -7129,24 +7123,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6570E11-21DF-40C1-8E5B-FD3CDF32C4F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21938D86-7413-468E-85B7-E79A45C27865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57B575B8-240F-4CC3-A552-189C22DB0968}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7162,4 +7154,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21938D86-7413-468E-85B7-E79A45C27865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6570E11-21DF-40C1-8E5B-FD3CDF32C4F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>